--- a/biology/Botanique/Asystasia_gangetica/Asystasia_gangetica.xlsx
+++ b/biology/Botanique/Asystasia_gangetica/Asystasia_gangetica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asystasia gangetica est une espèce de plantes tropicales de la famille des Acanthaceae.
 </t>
@@ -513,13 +525,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ornement
-On la cultive comme ornementale.
+          <t>Ornement</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la cultive comme ornementale.
 C'est un couvre-sol fleuri de croissance rapide et de faibles exigences quant à la qualité du sol.
 Elle préfère la mi-ombre et un climat humide. Elle ne supporte ni le vent, ni les embruns.
-La multiplication se fait par bouturage des têtes[2].
-Alimentation
-Dans certaines régions d'Afrique les feuilles sont consommées[3].
+La multiplication se fait par bouturage des têtes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Asystasia_gangetica</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asystasia_gangetica</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans certaines régions d'Afrique les feuilles sont consommées.
 </t>
         </is>
       </c>
